--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_25_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_25_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_24</t>
+          <t>model_25_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9614823022030279</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7878523395731755</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7634808206869781</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9372384421877551</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9584712948982794</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2575680225260428</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H2" t="n">
-        <v>1.418632382124331</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I2" t="n">
-        <v>0.179833126231667</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6136641017261044</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3967486104282883</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L2" t="n">
-        <v>1.389806784499495</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5075115984152903</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N2" t="n">
-        <v>1.009152720268587</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5291174178536684</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P2" t="n">
-        <v>252.7129428572283</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.0724209657533</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_23</t>
+          <t>model_25_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9613791380491232</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7875541538004462</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7639642408209647</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E3" t="n">
-        <v>0.938455095412508</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9591131283697509</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2582578816982305</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H3" t="n">
-        <v>1.42062635175959</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1794655663820572</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6017680233892067</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3906167905868334</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39436121365706</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5081907926145756</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N3" t="n">
-        <v>1.009177234522981</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O3" t="n">
-        <v>0.529825526756143</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P3" t="n">
-        <v>252.7075933036069</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q3" t="n">
-        <v>405.067071412132</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_22</t>
+          <t>model_25_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9612662377630256</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7872442146098437</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7643741719480448</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9396706790563535</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9597514895561199</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2590128464312236</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H4" t="n">
-        <v>1.422698916554288</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1791538825839964</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5898824031006707</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3845181435661061</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L4" t="n">
-        <v>1.398959537777312</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M4" t="n">
-        <v>0.50893304710072</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N4" t="n">
-        <v>1.009204062313737</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5305993805524413</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P4" t="n">
-        <v>252.7017552367842</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q4" t="n">
-        <v>405.0612333453092</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_21</t>
+          <t>model_25_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9611434712803029</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7869222520850728</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7647075709380787</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9408848371676743</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9603860768002253</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2598337864664783</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H5" t="n">
-        <v>1.424851881439932</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1789003886270394</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5780107212509917</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3784555512777689</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L5" t="n">
-        <v>1.40359925393103</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5097389395234372</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N5" t="n">
-        <v>1.009233234547255</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5314395814840208</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P5" t="n">
-        <v>252.6954262704325</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.0549043789576</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_20</t>
+          <t>model_25_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9610104824861065</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7865879304683767</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7649590837443989</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9420974391240098</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9610166087666006</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2607230831456258</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H6" t="n">
-        <v>1.427087491630188</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1787091553647762</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5661542550282768</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3724317014881531</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L6" t="n">
-        <v>1.408277850338008</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5106105004263287</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N6" t="n">
-        <v>1.009264835844885</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5323482465389282</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P6" t="n">
-        <v>252.6885928380358</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q6" t="n">
-        <v>405.0480709465609</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_19</t>
+          <t>model_25_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9608668212566465</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7862409357714445</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7651287172196559</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9433075257256749</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9616425957261977</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2616837464485249</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H7" t="n">
-        <v>1.429407846766337</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1785801775869164</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5543223832056698</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3664512728723786</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L7" t="n">
-        <v>1.413000494870337</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M7" t="n">
-        <v>0.511550336182594</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N7" t="n">
-        <v>1.009298973166737</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O7" t="n">
-        <v>0.533328093049066</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P7" t="n">
-        <v>252.6812371578927</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q7" t="n">
-        <v>405.0407152664177</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_18</t>
+          <t>model_25_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9607124236963427</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7858808314625102</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7652148959400293</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9445152964262402</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9622640753130518</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2627162036452113</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H8" t="n">
-        <v>1.431815865938309</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1785146531387748</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5425131555846668</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3605139058899517</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L8" t="n">
-        <v>1.417766627299669</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5125584880237681</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N8" t="n">
-        <v>1.009335661695919</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5343791640012809</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P8" t="n">
-        <v>252.6733618060316</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.0328399145567</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_17</t>
+          <t>model_25_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9605467112245278</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7855073209812282</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7652129308539617</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9457199064268165</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9628804310822182</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2638243237072729</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H9" t="n">
-        <v>1.4343135322465</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1785161472568073</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5307348323609926</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3546254898089</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42257117397551</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5136383199365804</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N9" t="n">
-        <v>1.009375038916944</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5355049665941818</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P9" t="n">
-        <v>252.6649436756848</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q9" t="n">
-        <v>405.0244217842098</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_16</t>
+          <t>model_25_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9603695917973383</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7851200805672439</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7651208806240719</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9469215019360567</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9634916593338851</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2650087221324493</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H10" t="n">
-        <v>1.436903010677891</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1785861360021577</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J10" t="n">
-        <v>0.518985983949327</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3487860599757424</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L10" t="n">
-        <v>1.427422464257666</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5147899786635801</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N10" t="n">
-        <v>1.009417126701623</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5367056538174522</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P10" t="n">
-        <v>252.6559850796604</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q10" t="n">
-        <v>405.0154631881855</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_15</t>
+          <t>model_25_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9601807265982002</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7847186767386172</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7649365852519887</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9481193237689283</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9640972857783184</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2662716645887305</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H11" t="n">
-        <v>1.439587199928212</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1787262616909412</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5072740334382196</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3430001475645804</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L11" t="n">
-        <v>1.432313787160522</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5160151786418017</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N11" t="n">
-        <v>1.009462005560824</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5379830130952602</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P11" t="n">
-        <v>252.6464763918429</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.005954500368</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_14</t>
+          <t>model_25_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9599795698324496</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7843026852952411</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7646558517208237</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9493130793606946</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9646969936766695</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2676168008075461</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H12" t="n">
-        <v>1.442368936625533</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1789397124085283</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4956018414398419</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3372707785714745</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L12" t="n">
-        <v>1.437253390066275</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5173169249188992</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N12" t="n">
-        <v>1.009509805188329</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5393401774063601</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P12" t="n">
-        <v>252.6363983388241</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q12" t="n">
-        <v>404.9958764473492</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_13</t>
+          <t>model_25_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9597659632731717</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7838717718129695</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7642761718252892</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9505023472037559</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F13" t="n">
-        <v>0.965290468039649</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2690451888530057</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H13" t="n">
-        <v>1.445250457065657</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1792283952239329</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4839735293318596</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3316009622778963</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L13" t="n">
-        <v>1.442230818971907</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5186956611087138</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N13" t="n">
-        <v>1.009560563182613</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5407776092501524</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P13" t="n">
-        <v>252.6257518503752</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q13" t="n">
-        <v>404.9852299589003</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9595394282501084</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7834254993263412</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7637948863484695</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9516862653028144</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F14" t="n">
-        <v>0.965877161874519</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2705600295953271</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H14" t="n">
-        <v>1.448234683238636</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1795943320251588</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J14" t="n">
-        <v>0.472397525451436</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3259959244333167</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44725179461545</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5201538518508991</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N14" t="n">
-        <v>1.009614393287103</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5422978781911035</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P14" t="n">
-        <v>252.6145225688929</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q14" t="n">
-        <v>404.9740006774179</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_11</t>
+          <t>model_25_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9592995988920102</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7829635052968644</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7632088992592487</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9528645993255316</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9664568306101018</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2721637696172428</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H15" t="n">
-        <v>1.451324039441034</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1800398768240714</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4608761210314367</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3204580015727835</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L15" t="n">
-        <v>1.452321263420193</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5216931757434083</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N15" t="n">
-        <v>1.009671382441502</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5439027342885566</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P15" t="n">
-        <v>252.6027025993822</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q15" t="n">
-        <v>404.9621807079072</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_10</t>
+          <t>model_25_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9590462420403021</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7824853417419989</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7625169317594407</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9540368986700332</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F16" t="n">
-        <v>0.967029194955629</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2738579680512161</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H16" t="n">
-        <v>1.45452152133416</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1805660019319913</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4494137219248078</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3149898619283995</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L16" t="n">
-        <v>1.457430575318839</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5233144065007346</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N16" t="n">
-        <v>1.009731586049829</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5455929841956325</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P16" t="n">
-        <v>252.5902913435362</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q16" t="n">
-        <v>404.9497694520613</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_9</t>
+          <t>model_25_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9587788046447321</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7819904922438792</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7617144306971424</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9552027271639342</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9675938502151347</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2756463231468287</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H17" t="n">
-        <v>1.45783058220666</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1811761692565038</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4380145928971841</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3095953718032889</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L17" t="n">
-        <v>1.462586839667042</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5250203073661329</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N17" t="n">
-        <v>1.009795135529965</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5473715087925726</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P17" t="n">
-        <v>252.5772733457648</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q17" t="n">
-        <v>404.9367514542899</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_8</t>
+          <t>model_25_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.95849700735566</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7814785475698145</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7607971974736627</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9563614906197611</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9681503226157953</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2775307029164109</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H18" t="n">
-        <v>1.461253958599419</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1818735711270033</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4266845437393812</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3042790574331922</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L18" t="n">
-        <v>1.467788306766899</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M18" t="n">
-        <v>0.526811828755212</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N18" t="n">
-        <v>1.009862097262021</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5492392989561452</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P18" t="n">
-        <v>252.5636474215514</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q18" t="n">
-        <v>404.9231255300765</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_7</t>
+          <t>model_25_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9582004307319605</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7809491128828031</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7597652426117805</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9575124299288807</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9686982270305439</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2795139121646992</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H19" t="n">
-        <v>1.464794290789286</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1826581995426831</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4154309967929353</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2990445981678092</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L19" t="n">
-        <v>1.473030023266561</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5286907528647529</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N19" t="n">
-        <v>1.009932570915178</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5511982127549384</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P19" t="n">
-        <v>252.5494064248779</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q19" t="n">
-        <v>404.908884533403</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_6</t>
+          <t>model_25_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9578885559534117</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7804016408171728</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D20" t="n">
-        <v>0.758611357175299</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9586550865460293</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9692370411836001</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2815994202449059</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H20" t="n">
-        <v>1.468455239013033</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1835355356891992</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4042584355789267</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2938969836207019</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47832563166973</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5306594201980267</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N20" t="n">
-        <v>1.010006679773447</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5532506903322929</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P20" t="n">
-        <v>252.5345394269795</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q20" t="n">
-        <v>404.8940175355046</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_5</t>
+          <t>model_25_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.957561138592983</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7798356510605545</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7573348495136606</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9597891312963047</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F21" t="n">
-        <v>0.969766569013819</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2837888616417116</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H21" t="n">
-        <v>1.472240015121683</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1845061054506785</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3931700786729861</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2888380868814985</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L21" t="n">
-        <v>1.483660094887174</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5327183699120123</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N21" t="n">
-        <v>1.010084481918499</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5553972937982162</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P21" t="n">
-        <v>252.5190495244734</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q21" t="n">
-        <v>404.8785276329985</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_4</t>
+          <t>model_25_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9572176479915763</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7792506854871094</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7559327428737309</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E22" t="n">
-        <v>0.960913623272125</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9702862099183072</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G22" t="n">
-        <v>0.286085784874947</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H22" t="n">
-        <v>1.47615168260483</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I22" t="n">
-        <v>0.185572172148107</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3821751259934439</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2838736458696148</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48903712566108</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5348698765820963</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N22" t="n">
-        <v>1.010166103447546</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5576403945614785</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P22" t="n">
-        <v>252.5029271320444</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q22" t="n">
-        <v>404.8624052405696</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_3</t>
+          <t>model_25_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9568575584871145</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7786461448493543</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7544009262975031</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E23" t="n">
-        <v>0.962027962054506</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9707954934688308</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2884937050493426</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H23" t="n">
-        <v>1.480194248633151</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1867368614748527</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3712794482609996</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2790081548679261</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L23" t="n">
-        <v>1.501573645311227</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M23" t="n">
-        <v>0.537116100158376</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N23" t="n">
-        <v>1.010251669270389</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5599822445257243</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P23" t="n">
-        <v>252.4861640257167</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q23" t="n">
-        <v>404.8456421342418</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_2</t>
+          <t>model_25_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9564805709271013</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7780216108381537</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7527353132152356</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9631317649776141</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9712940595543778</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2910146225990193</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H24" t="n">
-        <v>1.484370510441764</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1880032805811025</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3604867870699224</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2742450542327639</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L24" t="n">
-        <v>1.516159077449981</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5394577115947267</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N24" t="n">
-        <v>1.010341250472768</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5624235432087243</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P24" t="n">
-        <v>252.4687635271839</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q24" t="n">
-        <v>404.828241635709</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_1</t>
+          <t>model_25_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.95608607608374</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7773764462099766</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7509340499524542</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9642238929934729</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9717812576010888</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2936526114330574</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H25" t="n">
-        <v>1.488684729281095</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1893728388750771</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3498082796971953</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2695905592861362</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L25" t="n">
-        <v>1.530862619418843</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5418972332768063</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010434991821686</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5649669203793161</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P25" t="n">
-        <v>252.4507156080817</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q25" t="n">
-        <v>404.8101937166068</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_25_9_0</t>
+          <t>model_25_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9556737836801027</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7767101482991692</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7489942189089762</v>
+        <v>0.9768576837884972</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9653039813852328</v>
+        <v>0.9713859579032705</v>
       </c>
       <c r="F26" t="n">
-        <v>0.972256778843588</v>
+        <v>0.9733813774376743</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2964096126346123</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H26" t="n">
-        <v>1.493140266478684</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1908477547018745</v>
+        <v>0.05615983937969929</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3392474922371875</v>
+        <v>0.1230256342393989</v>
       </c>
       <c r="K26" t="n">
-        <v>0.265047619848738</v>
+        <v>0.08959273680995446</v>
       </c>
       <c r="L26" t="n">
-        <v>1.545683302509925</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5444351317049739</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N26" t="n">
-        <v>1.010532962293837</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5676128623977448</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P26" t="n">
-        <v>252.4320259095904</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q26" t="n">
-        <v>404.7915040181155</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
   </sheetData>
